--- a/Code/Results/Cases/Case_2_168/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_168/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.000065791084722</v>
+        <v>0.3512740669568757</v>
       </c>
       <c r="C2">
-        <v>0.1446223634415418</v>
+        <v>0.05555679239114397</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.383489582702452</v>
+        <v>0.4166729779671812</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.0007965630273925562</v>
+        <v>0.002419048623702947</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.047702605082634</v>
+        <v>0.3305156662642332</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6367393274167359</v>
+        <v>1.265257978966236</v>
       </c>
       <c r="O2">
-        <v>1.181039815708075</v>
+        <v>2.156546062487251</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8677282212259456</v>
+        <v>0.3125479595428544</v>
       </c>
       <c r="C3">
-        <v>0.1289815278472588</v>
+        <v>0.05062325806106571</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.189306966728566</v>
+        <v>0.3636028305573547</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.0008004195373638723</v>
+        <v>0.002421454742344503</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9108556870440907</v>
+        <v>0.2895758957097314</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6746642369052225</v>
+        <v>1.280705205554181</v>
       </c>
       <c r="O3">
-        <v>1.15516128664521</v>
+        <v>2.170090714736901</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.786805944121312</v>
+        <v>0.2888069061714589</v>
       </c>
       <c r="C4">
-        <v>0.119393278195929</v>
+        <v>0.04757305651486377</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.072074969923364</v>
+        <v>0.3310981184881001</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.0008028549163275068</v>
+        <v>0.002423008893010239</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8271015730182683</v>
+        <v>0.2644141422553901</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6990070719430364</v>
+        <v>1.290689865219008</v>
       </c>
       <c r="O4">
-        <v>1.142744966251385</v>
+        <v>2.179871185102044</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7538958071582442</v>
+        <v>0.2791418526768155</v>
       </c>
       <c r="C5">
-        <v>0.1154876170206194</v>
+        <v>0.04632482103713187</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.024728735871179</v>
+        <v>0.3178709375501683</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008038648246452965</v>
+        <v>0.002423661590890319</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7930209493556504</v>
+        <v>0.2541546515922164</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7091852509991838</v>
+        <v>1.294884386260689</v>
       </c>
       <c r="O5">
-        <v>1.138506410397824</v>
+        <v>2.184224201047954</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7484346211475668</v>
+        <v>0.2775375686617565</v>
       </c>
       <c r="C6">
-        <v>0.1148391218393385</v>
+        <v>0.04611723592950057</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.016890612175587</v>
+        <v>0.3156756629712163</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0008040335886311768</v>
+        <v>0.002423771142475449</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7873643922018232</v>
+        <v>0.2524507254285879</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.710890719097506</v>
+        <v>1.2955884736696</v>
       </c>
       <c r="O6">
-        <v>1.13785073449985</v>
+        <v>2.184969184209294</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.786361860180449</v>
+        <v>0.2886765204945334</v>
       </c>
       <c r="C7">
-        <v>0.1193406012929614</v>
+        <v>0.04755624361403932</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.071434809497205</v>
+        <v>0.3309196581478204</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0008028684648977601</v>
+        <v>0.00242301761709659</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8266417710217127</v>
+        <v>0.2642758025434091</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.699143302215786</v>
+        <v>1.290745925130842</v>
       </c>
       <c r="O7">
-        <v>1.142684545240868</v>
+        <v>2.179928404818625</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9543556238905921</v>
+        <v>0.337913825893736</v>
       </c>
       <c r="C8">
-        <v>0.1392248372691398</v>
+        <v>0.05386007997141462</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.316073642773958</v>
+        <v>0.3983567442039799</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.0007978790644967816</v>
+        <v>0.002419862353590241</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.000450299595684</v>
+        <v>0.3164049033385368</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6495918809479857</v>
+        <v>1.270480385833268</v>
       </c>
       <c r="O8">
-        <v>1.171363614925625</v>
+        <v>2.160911956837694</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.287305080662236</v>
+        <v>0.4347514544876674</v>
       </c>
       <c r="C9">
-        <v>0.1784503951295875</v>
+        <v>0.06605481153697212</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.815407423055163</v>
+        <v>0.531314160805465</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0007886054627180352</v>
+        <v>0.00241428135420324</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.344335810581612</v>
+        <v>0.418426599755179</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5611628589204116</v>
+        <v>1.234708184528206</v>
       </c>
       <c r="O9">
-        <v>1.257690475976403</v>
+        <v>2.135271886523782</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.535397766829732</v>
+        <v>0.5060651959437905</v>
       </c>
       <c r="C10">
-        <v>0.2075851156067898</v>
+        <v>0.07491259671296291</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.200046726644203</v>
+        <v>0.6295445602724641</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0007820659422535749</v>
+        <v>0.002410546795283614</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.600235487360123</v>
+        <v>0.4932542622877634</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.502050312994168</v>
+        <v>1.210846508765403</v>
       </c>
       <c r="O10">
-        <v>1.343267973332047</v>
+        <v>2.123587643167411</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.649345103905119</v>
+        <v>0.5385432330129163</v>
       </c>
       <c r="C11">
-        <v>0.2209518593858775</v>
+        <v>0.07892024778979589</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.38037786707082</v>
+        <v>0.6743754978692493</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007791411918808798</v>
+        <v>0.002408926443263616</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.717700754036059</v>
+        <v>0.5272672814735984</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4765581474549236</v>
+        <v>1.200516957289967</v>
       </c>
       <c r="O11">
-        <v>1.387946086943884</v>
+        <v>2.119836653585139</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.692680525993666</v>
+        <v>0.550846924136664</v>
       </c>
       <c r="C12">
-        <v>0.2260338924803733</v>
+        <v>0.08043469491450139</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.44957665515787</v>
+        <v>0.6913745423223219</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0007780400279299715</v>
+        <v>0.002408324085590126</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.762365098769152</v>
+        <v>0.5401431266747636</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4671178908365619</v>
+        <v>1.196681011236315</v>
       </c>
       <c r="O12">
-        <v>1.405777778736109</v>
+        <v>2.118642072982624</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.683338692456289</v>
+        <v>0.5481968891654958</v>
       </c>
       <c r="C13">
-        <v>0.2249384114665673</v>
+        <v>0.08010867277124589</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.434630492739075</v>
+        <v>0.6877124653494349</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.000778276913871554</v>
+        <v>0.002408453315166863</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.752737174035502</v>
+        <v>0.5373702728924741</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.469141340673783</v>
+        <v>1.197503785491719</v>
       </c>
       <c r="O13">
-        <v>1.401895329860849</v>
+        <v>2.118889288653378</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.652906427364599</v>
+        <v>0.5395553677010696</v>
       </c>
       <c r="C14">
-        <v>0.2213695287716462</v>
+        <v>0.07904490582788526</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.38605175867697</v>
+        <v>0.6757735583504143</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007790504757187433</v>
+        <v>0.00240887666194769</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.721371463701729</v>
+        <v>0.5283266700704132</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4757771492532186</v>
+        <v>1.200199855349183</v>
       </c>
       <c r="O14">
-        <v>1.389394286892184</v>
+        <v>2.119733843403566</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.634290938721051</v>
+        <v>0.5342628218414802</v>
       </c>
       <c r="C15">
-        <v>0.2191862621276925</v>
+        <v>0.07839290505582142</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.356419043499386</v>
+        <v>0.66846361718423</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007795251089199751</v>
+        <v>0.002409137435517041</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.702183842292641</v>
+        <v>0.522786652039855</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4798698951862903</v>
+        <v>1.20186112843513</v>
       </c>
       <c r="O15">
-        <v>1.381858652285814</v>
+        <v>2.120280595209437</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.527975403211656</v>
+        <v>0.5039433942536675</v>
       </c>
       <c r="C16">
-        <v>0.2067141818199332</v>
+        <v>0.07465024616676885</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.188381116867532</v>
+        <v>0.6266178184512796</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0007822580207585048</v>
+        <v>0.002410654264390136</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.592582673281811</v>
+        <v>0.4910308697572248</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5037454270576056</v>
+        <v>1.211532147088935</v>
       </c>
       <c r="O16">
-        <v>1.340471029788858</v>
+        <v>2.123864332577085</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.463053199864447</v>
+        <v>0.4853526382827908</v>
       </c>
       <c r="C17">
-        <v>0.1990947032072796</v>
+        <v>0.07234864222481008</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.086762294905213</v>
+        <v>0.6009851798606292</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.0007839468425920918</v>
+        <v>0.002411604859800914</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.525637297826023</v>
+        <v>0.4715427047674439</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5187586732447009</v>
+        <v>1.217599602443183</v>
       </c>
       <c r="O17">
-        <v>1.316612340076006</v>
+        <v>2.126464117527576</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.425812214643059</v>
+        <v>0.4746632370008115</v>
       </c>
       <c r="C18">
-        <v>0.1947225676766919</v>
+        <v>0.07102277028812409</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.02880864472499</v>
+        <v>0.5862555551440636</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007849229790745275</v>
+        <v>0.002412159010867295</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.487229374222665</v>
+        <v>0.4603311574923907</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5275247471735547</v>
+        <v>1.221138874462255</v>
       </c>
       <c r="O18">
-        <v>1.303424889584164</v>
+        <v>2.128106623562246</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.413219474336017</v>
+        <v>0.4710446033867299</v>
       </c>
       <c r="C19">
-        <v>0.1932439055877779</v>
+        <v>0.07057350158348186</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.009267498715602</v>
+        <v>0.581270642188926</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.0007852543255972136</v>
+        <v>0.002412347908526873</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.474240924363016</v>
+        <v>0.4565347064253444</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5305149143892791</v>
+        <v>1.22234569815862</v>
       </c>
       <c r="O19">
-        <v>1.299049305822365</v>
+        <v>2.128687998512959</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.469953668378906</v>
+        <v>0.4873312953915843</v>
       </c>
       <c r="C20">
-        <v>0.1999047067894111</v>
+        <v>0.07259386429261383</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.097527614539089</v>
+        <v>0.6037123996433706</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0007837665766449592</v>
+        <v>0.002411502902349518</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.532753463622839</v>
+        <v>0.473617511343889</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5171468613288432</v>
+        <v>1.216948594690258</v>
       </c>
       <c r="O20">
-        <v>1.319096122649853</v>
+        <v>2.126172127022187</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.661839822764904</v>
+        <v>0.5420934602291538</v>
       </c>
       <c r="C21">
-        <v>0.2224172094675083</v>
+        <v>0.07935744604309036</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.400294566606846</v>
+        <v>0.6792796799325771</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.0007788230958592911</v>
+        <v>0.002408752010419961</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.730579108620191</v>
+        <v>0.5309831107023228</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4738221680627639</v>
+        <v>1.19940590084995</v>
       </c>
       <c r="O21">
-        <v>1.393040635523334</v>
+        <v>2.119479640804315</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.788348749669609</v>
+        <v>0.5779124625587428</v>
       </c>
       <c r="C22">
-        <v>0.2372512129168456</v>
+        <v>0.08375938630277346</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.603560690433582</v>
+        <v>0.7287994196467196</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007756289598584966</v>
+        <v>0.002407019601227142</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.860951883529367</v>
+        <v>0.5684505171652461</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4467552534109736</v>
+        <v>1.18838162088873</v>
       </c>
       <c r="O22">
-        <v>1.446736009994424</v>
+        <v>2.11642249234103</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.720717360046308</v>
+        <v>0.5587926754835735</v>
       </c>
       <c r="C23">
-        <v>0.2293215058230089</v>
+        <v>0.08141168556092282</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.494529181254634</v>
+        <v>0.7023571690165511</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0007773306675143284</v>
+        <v>0.002407938249679989</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.791259333132331</v>
+        <v>0.5484557957257152</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4610829243792018</v>
+        <v>1.1942251111339</v>
       </c>
       <c r="O23">
-        <v>1.417555772537099</v>
+        <v>2.117933364932838</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.466833708191132</v>
+        <v>0.4864367486226229</v>
       </c>
       <c r="C24">
-        <v>0.1995384782931211</v>
+        <v>0.07248300764634052</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.092659165112678</v>
+        <v>0.6024794021762716</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0007838480586439244</v>
+        <v>0.002411548973494201</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.529535998613426</v>
+        <v>0.4726795147581697</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5178751426466395</v>
+        <v>1.21724275639772</v>
       </c>
       <c r="O24">
-        <v>1.317971562553026</v>
+        <v>2.126303675419393</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.196726529658406</v>
+        <v>0.408524558834614</v>
       </c>
       <c r="C25">
-        <v>0.1677970553415662</v>
+        <v>0.06277368414033901</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.67766205104644</v>
+        <v>0.4952577799044775</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.0007910632379910447</v>
+        <v>0.002415726642553103</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.250843433625505</v>
+        <v>0.3908491882121155</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5840975044650332</v>
+        <v>1.243960585796582</v>
       </c>
       <c r="O25">
-        <v>1.230741571242845</v>
+        <v>2.140955653543358</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_168/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_168/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3512740669568757</v>
+        <v>1.000065791084836</v>
       </c>
       <c r="C2">
-        <v>0.05555679239114397</v>
+        <v>0.144622363441826</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4166729779671812</v>
+        <v>1.383489582702438</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002419048623702947</v>
+        <v>0.0007965630273533236</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3305156662642332</v>
+        <v>1.047702605082804</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.265257978966236</v>
+        <v>0.6367393274167377</v>
       </c>
       <c r="O2">
-        <v>2.156546062487251</v>
+        <v>1.181039815708132</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3125479595428544</v>
+        <v>0.8677282212260593</v>
       </c>
       <c r="C3">
-        <v>0.05062325806106571</v>
+        <v>0.1289815278474578</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3636028305573547</v>
+        <v>1.189306966728566</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002421454742344503</v>
+        <v>0.0008004195373647362</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2895758957097314</v>
+        <v>0.9108556870442328</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.280705205554181</v>
+        <v>0.6746642369052207</v>
       </c>
       <c r="O3">
-        <v>2.170090714736901</v>
+        <v>1.155161286645182</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2888069061714589</v>
+        <v>0.7868059441211983</v>
       </c>
       <c r="C4">
-        <v>0.04757305651486377</v>
+        <v>0.1193932781955596</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3310981184881001</v>
+        <v>1.072074969923349</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002423008893010239</v>
+        <v>0.0008028549164444041</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2644141422553901</v>
+        <v>0.827101573018183</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.290689865219008</v>
+        <v>0.6990070719431127</v>
       </c>
       <c r="O4">
-        <v>2.179871185102044</v>
+        <v>1.142744966251414</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2791418526768155</v>
+        <v>0.7538958071582442</v>
       </c>
       <c r="C5">
-        <v>0.04632482103713187</v>
+        <v>0.1154876170206336</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3178709375501683</v>
+        <v>1.024728735871179</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002423661590890319</v>
+        <v>0.0008038648246459156</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2541546515922164</v>
+        <v>0.7930209493557641</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.294884386260689</v>
+        <v>0.7091852509991323</v>
       </c>
       <c r="O5">
-        <v>2.184224201047954</v>
+        <v>1.13850641039781</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2775375686617565</v>
+        <v>0.748434621147652</v>
       </c>
       <c r="C6">
-        <v>0.04611723592950057</v>
+        <v>0.1148391218394949</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3156756629712163</v>
+        <v>1.016890612175573</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002423771142475449</v>
+        <v>0.0008040335886154715</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2524507254285879</v>
+        <v>0.7873643922019085</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.2955884736696</v>
+        <v>0.7108907190974989</v>
       </c>
       <c r="O6">
-        <v>2.184969184209294</v>
+        <v>1.137850734499835</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2886765204945334</v>
+        <v>0.7863618601805911</v>
       </c>
       <c r="C7">
-        <v>0.04755624361403932</v>
+        <v>0.1193406012932172</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3309196581478204</v>
+        <v>1.071434809497234</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.00242301761709659</v>
+        <v>0.00080286846497431</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2642758025434091</v>
+        <v>0.8266417710217411</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.290745925130842</v>
+        <v>0.6991433022157096</v>
       </c>
       <c r="O7">
-        <v>2.179928404818625</v>
+        <v>1.14268454524084</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.337913825893736</v>
+        <v>0.9543556238908195</v>
       </c>
       <c r="C8">
-        <v>0.05386007997141462</v>
+        <v>0.1392248372692109</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3983567442039799</v>
+        <v>1.316073642773958</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002419862353590241</v>
+        <v>0.000797879064475279</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3164049033385368</v>
+        <v>1.000450299595684</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.270480385833268</v>
+        <v>0.6495918809479786</v>
       </c>
       <c r="O8">
-        <v>2.160911956837694</v>
+        <v>1.17136361492561</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4347514544876674</v>
+        <v>1.287305080662236</v>
       </c>
       <c r="C9">
-        <v>0.06605481153697212</v>
+        <v>0.1784503951295875</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.531314160805465</v>
+        <v>1.815407423055206</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.00241428135420324</v>
+        <v>0.0007886054627181369</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.418426599755179</v>
+        <v>1.344335810581669</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.234708184528206</v>
+        <v>0.5611628589203423</v>
       </c>
       <c r="O9">
-        <v>2.135271886523782</v>
+        <v>1.25769047597629</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5060651959437905</v>
+        <v>1.535397766830016</v>
       </c>
       <c r="C10">
-        <v>0.07491259671296291</v>
+        <v>0.2075851156071167</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6295445602724641</v>
+        <v>2.200046726644175</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002410546795283614</v>
+        <v>0.000782065942276369</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4932542622877634</v>
+        <v>1.600235487360266</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.210846508765403</v>
+        <v>0.5020503129941787</v>
       </c>
       <c r="O10">
-        <v>2.123587643167411</v>
+        <v>1.343267973332047</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5385432330129163</v>
+        <v>1.649345103905063</v>
       </c>
       <c r="C11">
-        <v>0.07892024778979589</v>
+        <v>0.2209518593859485</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6743754978692493</v>
+        <v>2.380377867070891</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002408926443263616</v>
+        <v>0.0007791411919084401</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5272672814735984</v>
+        <v>1.717700754036059</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.200516957289967</v>
+        <v>0.4765581474549592</v>
       </c>
       <c r="O11">
-        <v>2.119836653585139</v>
+        <v>1.387946086943884</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.550846924136664</v>
+        <v>1.692680525993609</v>
       </c>
       <c r="C12">
-        <v>0.08043469491450139</v>
+        <v>0.2260338924803875</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6913745423223219</v>
+        <v>2.449576655157855</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002408324085590126</v>
+        <v>0.0007780400279368415</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5401431266747636</v>
+        <v>1.762365098768981</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.196681011236315</v>
+        <v>0.4671178908365725</v>
       </c>
       <c r="O12">
-        <v>2.118642072982624</v>
+        <v>1.405777778736052</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5481968891654958</v>
+        <v>1.683338692456289</v>
       </c>
       <c r="C13">
-        <v>0.08010867277124589</v>
+        <v>0.2249384114669795</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6877124653494349</v>
+        <v>2.434630492739046</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002408453315166863</v>
+        <v>0.0007782769138497892</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5373702728924741</v>
+        <v>1.752737174035303</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.197503785491719</v>
+        <v>0.4691413406737936</v>
       </c>
       <c r="O13">
-        <v>2.118889288653378</v>
+        <v>1.401895329860793</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5395553677010696</v>
+        <v>1.652906427364627</v>
       </c>
       <c r="C14">
-        <v>0.07904490582788526</v>
+        <v>0.2213695287714188</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6757735583504143</v>
+        <v>2.386051758676984</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.00240887666194769</v>
+        <v>0.0007790504757188543</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5283266700704132</v>
+        <v>1.721371463701729</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.200199855349183</v>
+        <v>0.4757771492532754</v>
       </c>
       <c r="O14">
-        <v>2.119733843403566</v>
+        <v>1.389394286892184</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5342628218414802</v>
+        <v>1.634290938720852</v>
       </c>
       <c r="C15">
-        <v>0.07839290505582142</v>
+        <v>0.2191862621277778</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.66846361718423</v>
+        <v>2.356419043499386</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.002409137435517041</v>
+        <v>0.000779525108972578</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.522786652039855</v>
+        <v>1.702183842292413</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.20186112843513</v>
+        <v>0.4798698951862903</v>
       </c>
       <c r="O15">
-        <v>2.120280595209437</v>
+        <v>1.381858652285672</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5039433942536675</v>
+        <v>1.527975403211656</v>
       </c>
       <c r="C16">
-        <v>0.07465024616676885</v>
+        <v>0.2067141818199332</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6266178184512796</v>
+        <v>2.188381116867546</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002410654264390136</v>
+        <v>0.0007822580207575056</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4910308697572248</v>
+        <v>1.592582673281697</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.211532147088935</v>
+        <v>0.5037454270576482</v>
       </c>
       <c r="O16">
-        <v>2.123864332577085</v>
+        <v>1.34047102978883</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4853526382827908</v>
+        <v>1.463053199864333</v>
       </c>
       <c r="C17">
-        <v>0.07234864222481008</v>
+        <v>0.1990947032072796</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6009851798606292</v>
+        <v>2.086762294905199</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.002411604859800914</v>
+        <v>0.0007839468426353206</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4715427047674439</v>
+        <v>1.525637297826023</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.217599602443183</v>
+        <v>0.5187586732447436</v>
       </c>
       <c r="O17">
-        <v>2.126464117527576</v>
+        <v>1.316612340076006</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4746632370008115</v>
+        <v>1.425812214643088</v>
       </c>
       <c r="C18">
-        <v>0.07102277028812409</v>
+        <v>0.1947225676766209</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5862555551440636</v>
+        <v>2.028808644725046</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002412159010867295</v>
+        <v>0.0007849229791894812</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4603311574923907</v>
+        <v>1.487229374222636</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.221138874462255</v>
+        <v>0.5275247471734854</v>
       </c>
       <c r="O18">
-        <v>2.128106623562246</v>
+        <v>1.303424889584164</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4710446033867299</v>
+        <v>1.413219474336074</v>
       </c>
       <c r="C19">
-        <v>0.07057350158348186</v>
+        <v>0.1932439055879343</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.581270642188926</v>
+        <v>2.00926749871563</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002412347908526873</v>
+        <v>0.0007852543255167593</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4565347064253444</v>
+        <v>1.474240924362903</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.22234569815862</v>
+        <v>0.5305149143892649</v>
       </c>
       <c r="O19">
-        <v>2.128687998512959</v>
+        <v>1.299049305822336</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4873312953915843</v>
+        <v>1.469953668378906</v>
       </c>
       <c r="C20">
-        <v>0.07259386429261383</v>
+        <v>0.1999047067893258</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6037123996433706</v>
+        <v>2.097527614539175</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002411502902349518</v>
+        <v>0.0007837665766442375</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.473617511343889</v>
+        <v>1.532753463622754</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.216948594690258</v>
+        <v>0.5171468613288432</v>
       </c>
       <c r="O20">
-        <v>2.126172127022187</v>
+        <v>1.319096122649853</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5420934602291538</v>
+        <v>1.661839822764904</v>
       </c>
       <c r="C21">
-        <v>0.07935744604309036</v>
+        <v>0.2224172094674941</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6792796799325771</v>
+        <v>2.400294566606831</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002408752010419961</v>
+        <v>0.0007788230958582498</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5309831107023228</v>
+        <v>1.730579108620049</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.19940590084995</v>
+        <v>0.4738221680626857</v>
       </c>
       <c r="O21">
-        <v>2.119479640804315</v>
+        <v>1.393040635523334</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5779124625587428</v>
+        <v>1.788348749669694</v>
       </c>
       <c r="C22">
-        <v>0.08375938630277346</v>
+        <v>0.2372512129168456</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7287994196467196</v>
+        <v>2.603560690433568</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002407019601227142</v>
+        <v>0.0007756289598293003</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5684505171652461</v>
+        <v>1.86095188352931</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.18838162088873</v>
+        <v>0.4467552534109771</v>
       </c>
       <c r="O22">
-        <v>2.11642249234103</v>
+        <v>1.446736009994368</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5587926754835735</v>
+        <v>1.72071736004628</v>
       </c>
       <c r="C23">
-        <v>0.08141168556092282</v>
+        <v>0.2293215058237195</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7023571690165511</v>
+        <v>2.494529181254634</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002407938249679989</v>
+        <v>0.0007773306675191591</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5484557957257152</v>
+        <v>1.791259333132246</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.1942251111339</v>
+        <v>0.4610829243791379</v>
       </c>
       <c r="O23">
-        <v>2.117933364932838</v>
+        <v>1.417555772537042</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4864367486226229</v>
+        <v>1.466833708190961</v>
       </c>
       <c r="C24">
-        <v>0.07248300764634052</v>
+        <v>0.1995384782931211</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6024794021762716</v>
+        <v>2.092659165112664</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002411548973494201</v>
+        <v>0.0007838480586229023</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4726795147581697</v>
+        <v>1.529535998613369</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.21724275639772</v>
+        <v>0.5178751426466359</v>
       </c>
       <c r="O24">
-        <v>2.126303675419393</v>
+        <v>1.31797156255297</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.408524558834614</v>
+        <v>1.196726529658292</v>
       </c>
       <c r="C25">
-        <v>0.06277368414033901</v>
+        <v>0.1677970553413388</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4952577799044775</v>
+        <v>1.677662051046411</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002415726642553103</v>
+        <v>0.0007910632380113765</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3908491882121155</v>
+        <v>1.250843433625477</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.243960585796582</v>
+        <v>0.5840975044650776</v>
       </c>
       <c r="O25">
-        <v>2.140955653543358</v>
+        <v>1.230741571242817</v>
       </c>
     </row>
   </sheetData>
